--- a/SCF-prod/files/导入发票模板_new.xlsx
+++ b/SCF-prod/files/导入发票模板_new.xlsx
@@ -1222,12 +1222,12 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>4081795263</t>
+          <t>6915240837</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>82407619</t>
+          <t>63802594</t>
         </is>
       </c>
       <c r="D3" s="15" t="n">
@@ -1245,12 +1245,12 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>496825</t>
+          <t>562314</t>
         </is>
       </c>
       <c r="H3" s="20" t="inlineStr">
         <is>
-          <t>66537</t>
+          <t>26537</t>
         </is>
       </c>
     </row>
